--- a/Canvas-LMS_Module_Title_Updater.xlsx
+++ b/Canvas-LMS_Module_Title_Updater.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bertscjn/Desktop/CanvasAPI_Python/moduleUpdater/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB873E56-E6F9-4641-805D-D1A2E80F5057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6C7CEE-9D18-9C42-BB45-14D644E1ED93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3820" windowWidth="38400" windowHeight="15200" activeTab="1" xr2:uid="{7A844830-DACA-ED4B-BB48-C32FEDF208B3}"/>
+    <workbookView xWindow="-23040" yWindow="500" windowWidth="23040" windowHeight="13900" activeTab="1" xr2:uid="{7A844830-DACA-ED4B-BB48-C32FEDF208B3}"/>
   </bookViews>
   <sheets>
     <sheet name="cURL Commands" sheetId="5" r:id="rId1"/>
-    <sheet name="IT1050" sheetId="2" r:id="rId2"/>
+    <sheet name="course" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -377,10 +377,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8138ED29-D9EC-5547-93C7-0E10DAD6AAB8}" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8138ED29-D9EC-5547-93C7-0E10DAD6AAB8}" name="Table2" displayName="Table2" ref="A1:J15" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:J15" xr:uid="{8138ED29-D9EC-5547-93C7-0E10DAD6AAB8}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{C0F6FABC-C985-A446-BC91-DD9FF7EF867C}" name="Your Data" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{C0F6FABC-C985-A446-BC91-DD9FF7EF867C}" name="Your Data" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{6F46E491-5437-1E4F-904A-AF13595DDB09}" name="URL">
       <calculatedColumnFormula>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</calculatedColumnFormula>
     </tableColumn>
@@ -395,7 +395,7 @@
     <tableColumn id="7" xr3:uid="{6CDAF1BC-741E-424B-840A-E63E39E10977}" name="API Parameter"/>
     <tableColumn id="8" xr3:uid="{635675F2-9F7F-554D-B277-43EBB3D3A50F}" name="Module Text"/>
     <tableColumn id="9" xr3:uid="{8893E54F-F809-5E46-934B-B8DD88C7ADE7}" name="REST Option"/>
-    <tableColumn id="10" xr3:uid="{125EEED0-99DA-4247-AC1D-960212CAE9B1}" name="cURL Command Output" dataDxfId="2">
+    <tableColumn id="10" xr3:uid="{125EEED0-99DA-4247-AC1D-960212CAE9B1}" name="cURL Command Output" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(B2,C2,D2,E2,F2,G2,H2,"' ",I2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -773,7 +773,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -826,11 +826,11 @@
         <v>21</v>
       </c>
       <c r="B2" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" ref="B2:B15" si="0">CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C2" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" ref="C2:C15" si="1">CONCATENATE($A$9)</f>
         <v>Your course ID</v>
       </c>
       <c r="D2" t="s">
@@ -840,7 +840,7 @@
         <v>123</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" ref="F2:F15" si="2">CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G2" t="s">
@@ -862,11 +862,11 @@
         <v>19</v>
       </c>
       <c r="B3" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C3" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D3" t="s">
@@ -876,7 +876,7 @@
         <v>123</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G3" t="s">
@@ -889,17 +889,17 @@
         <v>8</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J15" si="0">CONCATENATE(B3,C3,D3,E3,F3,G3,H3,"' ",I3)</f>
+        <f t="shared" ref="J3:J15" si="3">CONCATENATE(B3,C3,D3,E3,F3,G3,H3,"' ",I3)</f>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C4" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D4" t="s">
@@ -909,7 +909,7 @@
         <v>123</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G4" t="s">
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
@@ -931,11 +931,11 @@
         <v>22</v>
       </c>
       <c r="B5" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C5" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D5" t="s">
@@ -945,7 +945,7 @@
         <v>123</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G5" t="s">
@@ -958,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
@@ -967,11 +967,11 @@
         <v>20</v>
       </c>
       <c r="B6" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C6" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D6" t="s">
@@ -981,7 +981,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G6" t="s">
@@ -994,17 +994,17 @@
         <v>8</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C7" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D7" t="s">
@@ -1014,7 +1014,7 @@
         <v>123</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G7" t="s">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
@@ -1036,11 +1036,11 @@
         <v>23</v>
       </c>
       <c r="B8" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C8" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D8" t="s">
@@ -1050,7 +1050,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G8" t="s">
@@ -1063,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
@@ -1072,11 +1072,11 @@
         <v>24</v>
       </c>
       <c r="B9" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C9" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D9" t="s">
@@ -1086,7 +1086,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G9" t="s">
@@ -1099,17 +1099,17 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C10" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D10" t="s">
@@ -1119,7 +1119,7 @@
         <v>123</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G10" t="s">
@@ -1132,17 +1132,17 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C11" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D11" t="s">
@@ -1152,7 +1152,7 @@
         <v>123</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G11" t="s">
@@ -1165,17 +1165,17 @@
         <v>8</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C12" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D12" t="s">
@@ -1185,7 +1185,7 @@
         <v>123</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G12" t="s">
@@ -1198,17 +1198,17 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C13" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D13" t="s">
@@ -1218,7 +1218,7 @@
         <v>123</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G13" t="s">
@@ -1231,17 +1231,17 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C14" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D14" t="s">
@@ -1251,7 +1251,7 @@
         <v>123</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G14" t="s">
@@ -1264,17 +1264,17 @@
         <v>8</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" t="str">
-        <f>CONCATENATE("curl """,$A$6,"/api/v1/courses/")</f>
+        <f t="shared" si="0"/>
         <v>curl "Your institutional URL/api/v1/courses/</v>
       </c>
       <c r="C15" t="str">
-        <f>CONCATENATE($A$9)</f>
+        <f t="shared" si="1"/>
         <v>Your course ID</v>
       </c>
       <c r="D15" t="s">
@@ -1284,7 +1284,7 @@
         <v>123</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(""" -H 'Authorization: Bearer ", $A$3,"'"," -d ")</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">" -H 'Authorization: Bearer Your API key' -d </v>
       </c>
       <c r="G15" t="s">
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>curl "Your institutional URL/api/v1/courses/Your course ID/modules/123" -H 'Authorization: Bearer Your API key' -d 'module[name]=YOUR TEXT' -X PUT</v>
       </c>
     </row>
